--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H2">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N2">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O2">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P2">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q2">
-        <v>79.50627863788711</v>
+        <v>115.148418905506</v>
       </c>
       <c r="R2">
-        <v>715.556507740984</v>
+        <v>1036.335770149554</v>
       </c>
       <c r="S2">
-        <v>0.04707960264998216</v>
+        <v>0.0557474263341332</v>
       </c>
       <c r="T2">
-        <v>0.04707960264998214</v>
+        <v>0.0557474263341332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H3">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P3">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q3">
-        <v>99.74324156440888</v>
+        <v>113.0659620623733</v>
       </c>
       <c r="R3">
-        <v>897.6891740796799</v>
+        <v>1017.59365856136</v>
       </c>
       <c r="S3">
-        <v>0.05906291000313317</v>
+        <v>0.05473923524857589</v>
       </c>
       <c r="T3">
-        <v>0.05906291000313314</v>
+        <v>0.05473923524857589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H4">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N4">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O4">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P4">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q4">
-        <v>0.09226621015644443</v>
+        <v>0.6645959662213333</v>
       </c>
       <c r="R4">
-        <v>0.8303958914079999</v>
+        <v>5.981363695992</v>
       </c>
       <c r="S4">
-        <v>5.463538963972055E-05</v>
+        <v>0.0003217544367612178</v>
       </c>
       <c r="T4">
-        <v>5.463538963972053E-05</v>
+        <v>0.0003217544367612179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H5">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N5">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O5">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P5">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q5">
-        <v>9.612082155395555</v>
+        <v>17.40429712925867</v>
       </c>
       <c r="R5">
-        <v>86.50873939856</v>
+        <v>156.638674163328</v>
       </c>
       <c r="S5">
-        <v>0.005691789582758328</v>
+        <v>0.008426036426144272</v>
       </c>
       <c r="T5">
-        <v>0.005691789582758326</v>
+        <v>0.008426036426144272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H6">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N6">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O6">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q6">
-        <v>0.1767598844311112</v>
+        <v>0.028917335826</v>
       </c>
       <c r="R6">
-        <v>1.59083895988</v>
+        <v>0.260256022434</v>
       </c>
       <c r="S6">
-        <v>0.000104668276091442</v>
+        <v>1.399990606959382E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001046682760914419</v>
+        <v>1.399990606959383E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N7">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O7">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P7">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q7">
-        <v>419.6400677724204</v>
+        <v>536.1485021477946</v>
       </c>
       <c r="R7">
-        <v>3776.760609951784</v>
+        <v>4825.336519330152</v>
       </c>
       <c r="S7">
-        <v>0.2484896537129909</v>
+        <v>0.2595684718186856</v>
       </c>
       <c r="T7">
-        <v>0.2484896537129909</v>
+        <v>0.2595684718186856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P8">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q8">
         <v>526.4522672550755</v>
@@ -948,10 +948,10 @@
         <v>4738.07040529568</v>
       </c>
       <c r="S8">
-        <v>0.3117384435691636</v>
+        <v>0.2548741812193167</v>
       </c>
       <c r="T8">
-        <v>0.3117384435691635</v>
+        <v>0.2548741812193167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N9">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O9">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P9">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q9">
-        <v>0.4869879378897777</v>
+        <v>3.094459613166222</v>
       </c>
       <c r="R9">
-        <v>4.382891441008</v>
+        <v>27.850136518496</v>
       </c>
       <c r="S9">
-        <v>0.0002883696609120306</v>
+        <v>0.001498137455717037</v>
       </c>
       <c r="T9">
-        <v>0.0002883696609120305</v>
+        <v>0.001498137455717037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N10">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O10">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P10">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q10">
-        <v>50.73328643006222</v>
+        <v>81.03704701707376</v>
       </c>
       <c r="R10">
-        <v>456.59957787056</v>
+        <v>729.3334231536639</v>
       </c>
       <c r="S10">
-        <v>0.0300416898787773</v>
+        <v>0.03923290351582927</v>
       </c>
       <c r="T10">
-        <v>0.03004168987877729</v>
+        <v>0.03923290351582927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,40 +1104,40 @@
         <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N11">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O11">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P11">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q11">
-        <v>0.9329518517644447</v>
+        <v>0.134643501288</v>
       </c>
       <c r="R11">
-        <v>8.396566665880002</v>
+        <v>1.211791511592</v>
       </c>
       <c r="S11">
-        <v>0.0005524469667695464</v>
+        <v>6.518568592402649E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005524469667695461</v>
+        <v>6.518568592402649E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H12">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I12">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J12">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N12">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O12">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P12">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q12">
-        <v>210.7716707641697</v>
+        <v>1.424303279151667</v>
       </c>
       <c r="R12">
-        <v>1896.945036877527</v>
+        <v>12.818729512365</v>
       </c>
       <c r="S12">
-        <v>0.1248083381520682</v>
+        <v>0.0006895556438089762</v>
       </c>
       <c r="T12">
-        <v>0.1248083381520682</v>
+        <v>0.0006895556438089763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H13">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I13">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J13">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>122.56588</v>
       </c>
       <c r="O13">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P13">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q13">
-        <v>264.4199933908934</v>
+        <v>1.398544782955556</v>
       </c>
       <c r="R13">
-        <v>2379.77994051804</v>
+        <v>12.5869030466</v>
       </c>
       <c r="S13">
-        <v>0.1565761652391306</v>
+        <v>0.0006770850438405203</v>
       </c>
       <c r="T13">
-        <v>0.1565761652391305</v>
+        <v>0.0006770850438405204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J14">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N14">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O14">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P14">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q14">
-        <v>0.2445983336526667</v>
+        <v>0.008220575002222221</v>
       </c>
       <c r="R14">
-        <v>2.201385002874</v>
+        <v>0.07398517501999999</v>
       </c>
       <c r="S14">
-        <v>0.0001448387794587053</v>
+        <v>3.979871401766047E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001448387794587053</v>
+        <v>3.979871401766048E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J15">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N15">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O15">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P15">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q15">
-        <v>25.48169339735334</v>
+        <v>0.2152786612977778</v>
       </c>
       <c r="R15">
-        <v>229.33524057618</v>
+        <v>1.93750795168</v>
       </c>
       <c r="S15">
-        <v>0.01508897184661328</v>
+        <v>0.0001042240217111207</v>
       </c>
       <c r="T15">
-        <v>0.01508897184661327</v>
+        <v>0.0001042240217111207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J16">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N16">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O16">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P16">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q16">
-        <v>0.4685916232516668</v>
+        <v>0.000357686685</v>
       </c>
       <c r="R16">
-        <v>4.217324609265001</v>
+        <v>0.003219180165</v>
       </c>
       <c r="S16">
-        <v>0.0002774762925111407</v>
+        <v>1.731687878328683E-07</v>
       </c>
       <c r="T16">
-        <v>0.0002774762925111405</v>
+        <v>1.731687878328683E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.520146</v>
+      </c>
+      <c r="H17">
+        <v>22.560438</v>
+      </c>
+      <c r="I17">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J17">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>41.607769</v>
+      </c>
+      <c r="N17">
+        <v>124.823307</v>
+      </c>
+      <c r="O17">
+        <v>0.4674897261536314</v>
+      </c>
+      <c r="P17">
+        <v>0.4674897261536314</v>
+      </c>
+      <c r="Q17">
+        <v>312.896497614274</v>
+      </c>
+      <c r="R17">
+        <v>2816.068478528466</v>
+      </c>
+      <c r="S17">
+        <v>0.1514842723570037</v>
+      </c>
+      <c r="T17">
+        <v>0.1514842723570037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.520146</v>
+      </c>
+      <c r="H18">
+        <v>22.560438</v>
+      </c>
+      <c r="I18">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J18">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N18">
+        <v>122.56588</v>
+      </c>
+      <c r="O18">
+        <v>0.4590351838457449</v>
+      </c>
+      <c r="P18">
+        <v>0.4590351838457449</v>
+      </c>
+      <c r="Q18">
+        <v>307.2377707394933</v>
+      </c>
+      <c r="R18">
+        <v>2765.13993665544</v>
+      </c>
+      <c r="S18">
+        <v>0.1487446823340118</v>
+      </c>
+      <c r="T18">
+        <v>0.1487446823340118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.520146</v>
+      </c>
+      <c r="H19">
+        <v>22.560438</v>
+      </c>
+      <c r="I19">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J19">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2401453333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.720436</v>
+      </c>
+      <c r="O19">
+        <v>0.002698185430636104</v>
+      </c>
+      <c r="P19">
+        <v>0.002698185430636104</v>
+      </c>
+      <c r="Q19">
+        <v>1.805927967885333</v>
+      </c>
+      <c r="R19">
+        <v>16.253351710968</v>
+      </c>
+      <c r="S19">
+        <v>0.0008743136667560834</v>
+      </c>
+      <c r="T19">
+        <v>0.0008743136667560835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.520146</v>
+      </c>
+      <c r="H20">
+        <v>22.560438</v>
+      </c>
+      <c r="I20">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J20">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.288874666666666</v>
+      </c>
+      <c r="N20">
+        <v>18.866624</v>
+      </c>
+      <c r="O20">
+        <v>0.0706595034147231</v>
+      </c>
+      <c r="P20">
+        <v>0.0706595034147231</v>
+      </c>
+      <c r="Q20">
+        <v>47.29325566903466</v>
+      </c>
+      <c r="R20">
+        <v>425.6393010213119</v>
+      </c>
+      <c r="S20">
+        <v>0.02289633945103843</v>
+      </c>
+      <c r="T20">
+        <v>0.02289633945103844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.520146</v>
+      </c>
+      <c r="H21">
+        <v>22.560438</v>
+      </c>
+      <c r="I21">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J21">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.010449</v>
+      </c>
+      <c r="N21">
+        <v>0.031347</v>
+      </c>
+      <c r="O21">
+        <v>0.0001174011552645203</v>
+      </c>
+      <c r="P21">
+        <v>0.0001174011552645203</v>
+      </c>
+      <c r="Q21">
+        <v>0.07857800555399999</v>
+      </c>
+      <c r="R21">
+        <v>0.7072020499859999</v>
+      </c>
+      <c r="S21">
+        <v>3.804239448306712E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.804239448306713E-05</v>
       </c>
     </row>
   </sheetData>
